--- a/data/dataframe/10047.xlsx
+++ b/data/dataframe/10047.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19EC4E4-B5E7-7140-AE95-0F020AF502DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C981D6-DEAB-9644-832A-77787F25B336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="27440" windowHeight="12320" tabRatio="985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw" sheetId="1" r:id="rId1"/>
-    <sheet name="format" sheetId="2" r:id="rId2"/>
+    <sheet name="format" sheetId="2" r:id="rId1"/>
+    <sheet name="raw" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -117,13 +117,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>nc</t>
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>e_minus</t>
   </si>
 </sst>
 </file>
@@ -217,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,7 +257,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -363,7 +363,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -505,13 +505,4514 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AMK80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="11.33203125" style="3"/>
+    <col min="7" max="7" width="11.83203125" style="4"/>
+    <col min="8" max="1025" width="11.33203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.9462999999999999</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.2663000000000002</v>
+      </c>
+      <c r="G2" s="4">
+        <v>50</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.81697283894962303</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.862486992715921</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.232370931398311</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.21151725346814601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E3" s="3">
+        <v>6.6562999999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3.4655</v>
+      </c>
+      <c r="G3" s="4">
+        <v>50</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.74066235059760999</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.85409295872355195</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.21988458700472799</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.223296341271042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.88870000000000005</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.3718000000000004</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.661</v>
+      </c>
+      <c r="G4" s="4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.68946370530877599</v>
+      </c>
+      <c r="I4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.84587235518557102</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.21044809222229999</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.234706559092666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.93530000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6.0928000000000004</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.8527</v>
+      </c>
+      <c r="G5" s="4">
+        <v>50</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.57275636142008202</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.83779049601109901</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.19397172764180101</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.24576231007260299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5.819</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.0407000000000002</v>
+      </c>
+      <c r="G6" s="4">
+        <v>50</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.61274845784784104</v>
+      </c>
+      <c r="I6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.82988206729101599</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.17830385472802401</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.25646121578709502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.0257000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5.5503999999999998</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4.2252999999999998</v>
+      </c>
+      <c r="G7" s="4">
+        <v>50</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.64978902953586504</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.822112382934443</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.16419506402860001</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.26683471075213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.0697000000000001</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5.2868000000000004</v>
+      </c>
+      <c r="F8" s="3">
+        <v>4.4063999999999997</v>
+      </c>
+      <c r="G8" s="4">
+        <v>50</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.55852915578764095</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.81448144294138103</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.148784086209861</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.276885053243621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.1128</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4.5842000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>50</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.54957369062119399</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.80700659035726696</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.13630867822237</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.28661882153538398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.1552</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4.7587999999999999</v>
+      </c>
+      <c r="G10" s="4">
+        <v>50</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.55896425555868301</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.79965313909122504</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.120753021862055</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.29605987687221302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.1968000000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4.5244</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4.9302000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>50</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.524861878453039</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J11" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.79243843218869203</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.10683482907660199</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.30520680314090698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.2377</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.2793999999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5.0984999999999996</v>
+      </c>
+      <c r="G12" s="4">
+        <v>50</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.59749144811858601</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.78534512660423195</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9.3158139107497706E-2</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.314076370098469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.2778</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.0387000000000004</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5.2638999999999996</v>
+      </c>
+      <c r="G13" s="4">
+        <v>50</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.49388863739248501</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J13" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.778390565383281</v>
+      </c>
+      <c r="L13" s="9">
+        <v>7.9649937698260204E-2</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.32267328535210799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.3172999999999999</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3.8022</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5.4263000000000003</v>
+      </c>
+      <c r="G14" s="4">
+        <v>50</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.62988752008569904</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J14" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.77154006243496398</v>
+      </c>
+      <c r="L14" s="9">
+        <v>6.8445439512412901E-2</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.33101500317856097</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3.5699000000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5.5860000000000003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>50</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.56337475474166099</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J15" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.76482830385015599</v>
+      </c>
+      <c r="L15" s="9">
+        <v>5.6928041186516301E-2</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.33910093879699199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.3940999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3.3416000000000001</v>
+      </c>
+      <c r="F16" s="3">
+        <v>5.7427999999999999</v>
+      </c>
+      <c r="G16" s="4">
+        <v>50</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.76396761133603197</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J16" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.75822060353798104</v>
+      </c>
+      <c r="L16" s="9">
+        <v>4.6637301492072097E-2</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.34694556147743</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.4315</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3.1172</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5.8970000000000002</v>
+      </c>
+      <c r="G17" s="4">
+        <v>50</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.68535262206148295</v>
+      </c>
+      <c r="I17" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.75173430454387802</v>
+      </c>
+      <c r="L17" s="9">
+        <v>4.23182275232271E-2</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.35455524355278301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.4682999999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2.8965000000000001</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6.0486000000000004</v>
+      </c>
+      <c r="G18" s="4">
+        <v>50</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.56778523489932897</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J18" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.74535206382240704</v>
+      </c>
+      <c r="L18" s="9">
+        <v>4.0393459742469197E-2</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0.36194268647079902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.5044999999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.6797</v>
+      </c>
+      <c r="F19" s="3">
+        <v>6.1976000000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <v>50</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.67141774071266103</v>
+      </c>
+      <c r="I19" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0.739073881373569</v>
+      </c>
+      <c r="L19" s="9">
+        <v>2.58270744375356E-2</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0.36911266709454299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.5401</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2.4664000000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>6.3441000000000001</v>
+      </c>
+      <c r="G20" s="4">
+        <v>50</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.73434423001181603</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J20" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0.732899757197364</v>
+      </c>
+      <c r="L20" s="9">
+        <v>2.0091312995889399E-2</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0.376072654744039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.575</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.2566000000000002</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6.4882</v>
+      </c>
+      <c r="G21" s="4">
+        <v>50</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.76178107606679002</v>
+      </c>
+      <c r="I21" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J21" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.72684703433923004</v>
+      </c>
+      <c r="L21" s="9">
+        <v>2.1530766363310201E-2</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0.38282156182349097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.6094999999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2.0503</v>
+      </c>
+      <c r="F22" s="3">
+        <v>6.6299000000000001</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.0013513513513499</v>
+      </c>
+      <c r="I22" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J22" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.72086368366285103</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1.19266932919114E-2</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0.38938833773357701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.6433</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1.8473999999999999</v>
+      </c>
+      <c r="F23" s="3">
+        <v>6.7694000000000001</v>
+      </c>
+      <c r="G23" s="4">
+        <v>50</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.2596630327056499</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J23" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.71500173430454395</v>
+      </c>
+      <c r="L23" s="9">
+        <v>8.1973910286627805E-3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0.39575755343805202</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1.6766000000000001</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1.6476999999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>6.9065000000000003</v>
+      </c>
+      <c r="G24" s="4">
+        <v>50</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.67868098159509</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.70922650017343003</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5.3362903095987299E-3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>1</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0.40194464141446801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.7094</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.4513</v>
+      </c>
+      <c r="F25" s="3">
+        <v>7.0415000000000001</v>
+      </c>
+      <c r="G25" s="4">
+        <v>50</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2.9563888562360399</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J25" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.70353798126951095</v>
+      </c>
+      <c r="L25" s="9">
+        <v>3.5049673711535999E-3</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.40796102045844201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.0630999999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6.8373999999999997</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.8681999999999999</v>
+      </c>
+      <c r="G26" s="4">
+        <v>40</v>
+      </c>
+      <c r="H26" s="9">
+        <v>0.47868480725623602</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J26" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.81562608394033997</v>
+      </c>
+      <c r="L26" s="9">
+        <v>0.24912339248218701</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>1</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0.30229552209066002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.1289</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="E27" s="3">
+        <v>6.5365000000000002</v>
+      </c>
+      <c r="F27" s="3">
+        <v>3.0455999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>40</v>
+      </c>
+      <c r="H27" s="9">
+        <v>0.44222495390288902</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J27" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.80421436004162405</v>
+      </c>
+      <c r="L27" s="9">
+        <v>0.23900906578838699</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0.31892307345288701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.1928000000000001</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E28" s="3">
+        <v>6.2439999999999998</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.2181999999999999</v>
+      </c>
+      <c r="G28" s="4">
+        <v>40</v>
+      </c>
+      <c r="H28" s="9">
+        <v>0.51223404255319205</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0.79313215400624404</v>
+      </c>
+      <c r="L28" s="9">
+        <v>0.22877004708844401</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.33480939772998702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5.9593999999999996</v>
+      </c>
+      <c r="F29" s="3">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="G29" s="4">
+        <v>40</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1.4757709251101301</v>
+      </c>
+      <c r="I29" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0.78234477974332295</v>
+      </c>
+      <c r="L29" s="9">
+        <v>0.213616501072904</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0.34998904344627901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.1928000000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="E30" s="3">
+        <v>6.2439999999999998</v>
+      </c>
+      <c r="F30" s="3">
+        <v>3.2181999999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>40</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1.0047814207650301</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J30" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0.79313215400624404</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0.22268573732545299</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0.33480939772998702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.9593999999999996</v>
+      </c>
+      <c r="F31" s="3">
+        <v>3.3860000000000001</v>
+      </c>
+      <c r="G31" s="4">
+        <v>40</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0.42162756598240497</v>
+      </c>
+      <c r="I31" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0.78234477974332295</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0.213930181691219</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0.34998904344627901</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.3156000000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>5.6824000000000003</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3.5493999999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>40</v>
+      </c>
+      <c r="H32" s="9">
+        <v>0.406877022653722</v>
+      </c>
+      <c r="I32" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0.77183489420742302</v>
+      </c>
+      <c r="L32" s="9">
+        <v>0.19917947642342901</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>1</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0.36451216453171997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.3745000000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5.4127999999999998</v>
+      </c>
+      <c r="F33" s="3">
+        <v>3.7084000000000001</v>
+      </c>
+      <c r="G33" s="4">
+        <v>40</v>
+      </c>
+      <c r="H33" s="9">
+        <v>0.442984807864165</v>
+      </c>
+      <c r="I33" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.76161984044398201</v>
+      </c>
+      <c r="L33" s="9">
+        <v>0.184718171106523</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0.37838720845348101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.4319</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E34" s="3">
+        <v>5.1501999999999999</v>
+      </c>
+      <c r="F34" s="3">
+        <v>3.8632</v>
+      </c>
+      <c r="G34" s="4">
+        <v>40</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0.65134328358209004</v>
+      </c>
+      <c r="I34" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J34" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0.75166493236212295</v>
+      </c>
+      <c r="L34" s="9">
+        <v>0.16947032493493999</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>1</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.39165999496478998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.4319</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5.1501999999999999</v>
+      </c>
+      <c r="F35" s="3">
+        <v>3.8632</v>
+      </c>
+      <c r="G35" s="4">
+        <v>40</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.56405163853028795</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0.75166493236212295</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.16980757931292001</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>1</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0.39165999496478998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.4878</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4.8944999999999999</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4.0141</v>
+      </c>
+      <c r="G36" s="4">
+        <v>40</v>
+      </c>
+      <c r="H36" s="9">
+        <v>0.399669056811914</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0.74197016996184495</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.155787685340465</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>1</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0.40436247106844803</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.5423</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E37" s="3">
+        <v>4.6452</v>
+      </c>
+      <c r="F37" s="3">
+        <v>4.1611000000000002</v>
+      </c>
+      <c r="G37" s="4">
+        <v>40</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0.40062500000000001</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J37" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0.73251821019771102</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0.139812431864</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0.41651955981900501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.5953999999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.4021999999999997</v>
+      </c>
+      <c r="F38" s="3">
+        <v>4.3044000000000002</v>
+      </c>
+      <c r="G38" s="4">
+        <v>40</v>
+      </c>
+      <c r="H38" s="9">
+        <v>0.423668973308855</v>
+      </c>
+      <c r="I38" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0.72330905306971904</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0.12561118651744299</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>1</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0.42815635416007503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.6472</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E39" s="3">
+        <v>4.1651999999999996</v>
+      </c>
+      <c r="F39" s="3">
+        <v>4.4442000000000004</v>
+      </c>
+      <c r="G39" s="4">
+        <v>40</v>
+      </c>
+      <c r="H39" s="9">
+        <v>0.487104622871046</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J39" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0.71432535553243104</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.110818155311126</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0.43930603842611099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.6978</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="F40" s="3">
+        <v>4.5804999999999998</v>
+      </c>
+      <c r="G40" s="4">
+        <v>40</v>
+      </c>
+      <c r="H40" s="9">
+        <v>0.75615717240082703</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J40" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.70554977454040901</v>
+      </c>
+      <c r="L40" s="9">
+        <v>9.6726770701391296E-2</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>1</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0.449992245961782</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.6472</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4.1651999999999996</v>
+      </c>
+      <c r="F41" s="3">
+        <v>4.4442000000000004</v>
+      </c>
+      <c r="G41" s="4">
+        <v>40</v>
+      </c>
+      <c r="H41" s="9">
+        <v>0.79389563505087002</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J41" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0.71432535553243104</v>
+      </c>
+      <c r="L41" s="9">
+        <v>0.109541904049635</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>1</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0.43930603842611099</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.6978</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="F42" s="3">
+        <v>4.5804999999999998</v>
+      </c>
+      <c r="G42" s="4">
+        <v>40</v>
+      </c>
+      <c r="H42" s="9">
+        <v>0.49896010588012901</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J42" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0.70554977454040901</v>
+      </c>
+      <c r="L42" s="9">
+        <v>9.6181216439116105E-2</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0.449992245961782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.7471000000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.7084999999999999</v>
+      </c>
+      <c r="F43" s="3">
+        <v>4.7135999999999996</v>
+      </c>
+      <c r="G43" s="4">
+        <v>40</v>
+      </c>
+      <c r="H43" s="9">
+        <v>0.46946316018256901</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J43" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0.69699965313909096</v>
+      </c>
+      <c r="L43" s="9">
+        <v>8.4539461679227698E-2</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>1</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0.460231801983778</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1.7951999999999999</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3.4883000000000002</v>
+      </c>
+      <c r="F44" s="3">
+        <v>4.8433999999999999</v>
+      </c>
+      <c r="G44" s="4">
+        <v>40</v>
+      </c>
+      <c r="H44" s="9">
+        <v>0.40473129339161701</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J44" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0.68865764828303899</v>
+      </c>
+      <c r="L44" s="9">
+        <v>7.2107476764021697E-2</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0.47004294543813901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.8422000000000001</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3.2734000000000001</v>
+      </c>
+      <c r="F45" s="3">
+        <v>4.9702000000000002</v>
+      </c>
+      <c r="G45" s="4">
+        <v>40</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0.53384146341463401</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0.68050641692681202</v>
+      </c>
+      <c r="L45" s="9">
+        <v>6.1299908003293303E-2</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>1</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0.47945968575219899</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.8880999999999999</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3.0634999999999999</v>
+      </c>
+      <c r="F46" s="3">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="G46" s="4">
+        <v>40</v>
+      </c>
+      <c r="H46" s="9">
+        <v>0.557467532467533</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J46" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.67254595907041304</v>
+      </c>
+      <c r="L46" s="9">
+        <v>5.7960064251655903E-2</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>1</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0.488493681699319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.9329000000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2.8584000000000001</v>
+      </c>
+      <c r="F47" s="3">
+        <v>5.2149000000000001</v>
+      </c>
+      <c r="G47" s="4">
+        <v>40</v>
+      </c>
+      <c r="H47" s="9">
+        <v>0.55060584461867401</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J47" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0.66477627471384004</v>
+      </c>
+      <c r="L47" s="9">
+        <v>5.3120250085639399E-2</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>1</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0.49715997330680101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.9766999999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2.6581000000000001</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5.3331</v>
+      </c>
+      <c r="G48" s="4">
+        <v>40</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1.3314886552296601</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0.65718002081165505</v>
+      </c>
+      <c r="L48" s="9">
+        <v>3.4384015477416902E-2</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0.50548597373174797</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.9329000000000001</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2.8584000000000001</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5.2149000000000001</v>
+      </c>
+      <c r="G49" s="4">
+        <v>40</v>
+      </c>
+      <c r="H49" s="9">
+        <v>0.79241941197307797</v>
+      </c>
+      <c r="I49" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J49" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0.66477627471384004</v>
+      </c>
+      <c r="L49" s="9">
+        <v>5.3442076262209502E-2</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>1</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0.49715997330680101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.9766999999999999</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E50" s="3">
+        <v>2.6581000000000001</v>
+      </c>
+      <c r="F50" s="3">
+        <v>5.3331</v>
+      </c>
+      <c r="G50" s="4">
+        <v>40</v>
+      </c>
+      <c r="H50" s="9">
+        <v>0.75795148247978394</v>
+      </c>
+      <c r="I50" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K50" s="3">
+        <v>0.65718002081165505</v>
+      </c>
+      <c r="L50" s="9">
+        <v>3.5297370620148497E-2</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>1</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0.50548597373174797</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.0194999999999999</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E51" s="3">
+        <v>2.4622000000000002</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5.4485999999999999</v>
+      </c>
+      <c r="G51" s="4">
+        <v>40</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.51328437917223002</v>
+      </c>
+      <c r="I51" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J51" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K51" s="3">
+        <v>0.64975719736385695</v>
+      </c>
+      <c r="L51" s="9">
+        <v>2.8628344040957199E-2</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>1</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0.51348173700046895</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2.0613999999999999</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.2707000000000002</v>
+      </c>
+      <c r="F52" s="3">
+        <v>5.5614999999999997</v>
+      </c>
+      <c r="G52" s="4">
+        <v>40</v>
+      </c>
+      <c r="H52" s="9">
+        <v>0.50495283018867898</v>
+      </c>
+      <c r="I52" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J52" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0.64249046132500898</v>
+      </c>
+      <c r="L52" s="9">
+        <v>3.2528405994972302E-2</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>1</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0.52116992703177401</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C53" s="3">
+        <v>2.1023000000000001</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E53" s="3">
+        <v>2.0834999999999999</v>
+      </c>
+      <c r="F53" s="3">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="G53" s="4">
+        <v>40</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.85909417685118605</v>
+      </c>
+      <c r="I53" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J53" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0.635397155740548</v>
+      </c>
+      <c r="L53" s="9">
+        <v>1.8731480863172601E-2</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>1</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0.52855646411906498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C54" s="3">
+        <v>2.1423000000000001</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1.9003000000000001</v>
+      </c>
+      <c r="F54" s="3">
+        <v>5.78</v>
+      </c>
+      <c r="G54" s="4">
+        <v>40</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.702876771146415</v>
+      </c>
+      <c r="I54" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J54" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0.62845993756503604</v>
+      </c>
+      <c r="L54" s="9">
+        <v>1.34733046417739E-2</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>1</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0.53565648348904804</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C55" s="3">
+        <v>2.1815000000000002</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1.7212000000000001</v>
+      </c>
+      <c r="F55" s="3">
+        <v>5.8856999999999999</v>
+      </c>
+      <c r="G55" s="4">
+        <v>40</v>
+      </c>
+      <c r="H55" s="9">
+        <v>0.84975669099756701</v>
+      </c>
+      <c r="I55" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J55" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0.62166146375303499</v>
+      </c>
+      <c r="L55" s="9">
+        <v>9.5276279997989696E-3</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0.54249390917823703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2.2198000000000002</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1.5458000000000001</v>
+      </c>
+      <c r="F56" s="3">
+        <v>5.9890999999999996</v>
+      </c>
+      <c r="G56" s="4">
+        <v>40</v>
+      </c>
+      <c r="H56" s="9">
+        <v>1.4109947643979099</v>
+      </c>
+      <c r="I56" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J56" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0.61501907734998296</v>
+      </c>
+      <c r="L56" s="9">
+        <v>7.3892012681509899E-3</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0.54906706095244096</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C57" s="3">
+        <v>2.2574000000000001</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1.3742000000000001</v>
+      </c>
+      <c r="F57" s="3">
+        <v>6.0903</v>
+      </c>
+      <c r="G57" s="4">
+        <v>40</v>
+      </c>
+      <c r="H57" s="9">
+        <v>1.4503657262278</v>
+      </c>
+      <c r="I57" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J57" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.60849809226500196</v>
+      </c>
+      <c r="L57" s="9">
+        <v>3.7051347930774502E-3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0.55540521207403204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2.2940999999999998</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1.2060999999999999</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6.1894</v>
+      </c>
+      <c r="G58" s="4">
+        <v>40</v>
+      </c>
+      <c r="H58" s="9">
+        <v>3.2705882352941198</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J58" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0.60213319458896997</v>
+      </c>
+      <c r="L58" s="9">
+        <v>3.4568628346563697E-4</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0.56149928676119198</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2.4192</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2.9215</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4.2392000000000003</v>
+      </c>
+      <c r="G59" s="4">
+        <v>32</v>
+      </c>
+      <c r="H59" s="9">
+        <v>1.11794871794872</v>
+      </c>
+      <c r="I59" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J59" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0.58043704474505697</v>
+      </c>
+      <c r="L59" s="9">
+        <v>8.1725653243900701E-2</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0.62540864911006999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.4704000000000002</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2.7355999999999998</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4.3289999999999997</v>
+      </c>
+      <c r="G60" s="4">
+        <v>32</v>
+      </c>
+      <c r="H60" s="9">
+        <v>1.1167664670658699</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J60" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0.57155740548040201</v>
+      </c>
+      <c r="L60" s="9">
+        <v>6.1495090972621298E-2</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0.63410651052405198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C61" s="3">
+        <v>2.5200999999999998</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2.5554000000000001</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4.4160000000000004</v>
+      </c>
+      <c r="G61" s="4">
+        <v>32</v>
+      </c>
+      <c r="H61" s="9">
+        <v>1.1350629530713501</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J61" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0.562937911897329</v>
+      </c>
+      <c r="L61" s="9">
+        <v>4.3768590169136E-2</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0.64234855804520996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C62" s="3">
+        <v>2.5682999999999998</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2.3805000000000001</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4.5004999999999997</v>
+      </c>
+      <c r="G62" s="4">
+        <v>32</v>
+      </c>
+      <c r="H62" s="9">
+        <v>0.76680435598948604</v>
+      </c>
+      <c r="I62" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J62" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0.55457856399583805</v>
+      </c>
+      <c r="L62" s="9">
+        <v>4.4343394567065798E-2</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0.65016452913249101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C63" s="3">
+        <v>2.6151</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E63" s="3">
+        <v>2.2107000000000001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>4.5823999999999998</v>
+      </c>
+      <c r="G63" s="4">
+        <v>32</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1.11422771729101</v>
+      </c>
+      <c r="I63" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J63" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0.54646201873048905</v>
+      </c>
+      <c r="L63" s="9">
+        <v>4.4962433841087703E-2</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>1</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0.65757800634074703</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.6604999999999999</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E64" s="3">
+        <v>2.0459000000000001</v>
+      </c>
+      <c r="F64" s="3">
+        <v>4.6620999999999997</v>
+      </c>
+      <c r="G64" s="4">
+        <v>32</v>
+      </c>
+      <c r="H64" s="9">
+        <v>0.98536895674300196</v>
+      </c>
+      <c r="I64" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J64" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0.53858827610128301</v>
+      </c>
+      <c r="L64" s="9">
+        <v>2.5987183469840101E-2</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>1</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0.66461859203434703</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C65" s="3">
+        <v>2.7046999999999999</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1.8856999999999999</v>
+      </c>
+      <c r="F65" s="3">
+        <v>4.7393999999999998</v>
+      </c>
+      <c r="G65" s="4">
+        <v>32</v>
+      </c>
+      <c r="H65" s="9">
+        <v>1.63991683991684</v>
+      </c>
+      <c r="I65" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J65" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0.53092265001734296</v>
+      </c>
+      <c r="L65" s="9">
+        <v>1.9792263928729101E-2</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>1</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0.67131374831021096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2.7475999999999998</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4.8146000000000004</v>
+      </c>
+      <c r="G66" s="4">
+        <v>32</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1.3329700272479601</v>
+      </c>
+      <c r="I66" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J66" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K66" s="3">
+        <v>0.52348248352410698</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1.50310402701946E-2</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P66" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0.67767706405085903</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.7892999999999999</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1.5786</v>
+      </c>
+      <c r="F67" s="3">
+        <v>4.8876999999999997</v>
+      </c>
+      <c r="G67" s="4">
+        <v>32</v>
+      </c>
+      <c r="H67" s="9">
+        <v>2.1331250000000002</v>
+      </c>
+      <c r="I67" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J67" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0.51625043357613598</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1.30406085590998E-2</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>1</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0.68373075616351797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C68" s="3">
+        <v>2.8298999999999999</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1.4313</v>
+      </c>
+      <c r="F68" s="3">
+        <v>4.9588000000000001</v>
+      </c>
+      <c r="G68" s="4">
+        <v>32</v>
+      </c>
+      <c r="H68" s="9">
+        <v>2.0602928509905301</v>
+      </c>
+      <c r="I68" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J68" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0.50920915712799197</v>
+      </c>
+      <c r="L68" s="9">
+        <v>9.4121320117904403E-3</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>1</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0.68949892154606096</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C69" s="3">
+        <v>2.8694000000000002</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1.288</v>
+      </c>
+      <c r="F69" s="3">
+        <v>5.0279999999999996</v>
+      </c>
+      <c r="G69" s="4">
+        <v>32</v>
+      </c>
+      <c r="H69" s="9">
+        <v>5.7937088514996304</v>
+      </c>
+      <c r="I69" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J69" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0.50235865417967396</v>
+      </c>
+      <c r="L69" s="9">
+        <v>2.2040333997109499E-3</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>1</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0.69499522047574003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C70" s="3">
+        <v>2.9077999999999999</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="F70" s="3">
+        <v>5.0953999999999997</v>
+      </c>
+      <c r="G70" s="4">
+        <v>32</v>
+      </c>
+      <c r="H70" s="9">
+        <v>8.0368098159509191</v>
+      </c>
+      <c r="I70" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J70" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0.49569892473118299</v>
+      </c>
+      <c r="L70" s="9">
+        <v>1.6983677280512001E-5</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0.70023251150333199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C71" s="3">
+        <v>3.4097</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1.3225</v>
+      </c>
+      <c r="F71" s="3">
+        <v>3.9794999999999998</v>
+      </c>
+      <c r="G71" s="4">
+        <v>26</v>
+      </c>
+      <c r="H71" s="9">
+        <v>1.2225461613216699</v>
+      </c>
+      <c r="I71" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J71" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0.40865417967395101</v>
+      </c>
+      <c r="L71" s="9">
+        <v>6.6790290818212299E-3</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>1</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0.79660480782112897</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C72" s="3">
+        <v>3.4478</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1.2065999999999999</v>
+      </c>
+      <c r="F72" s="3">
+        <v>4.0239000000000003</v>
+      </c>
+      <c r="G72" s="4">
+        <v>26</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1.7048804454634801</v>
+      </c>
+      <c r="I72" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J72" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0.40204647936177601</v>
+      </c>
+      <c r="L72" s="9">
+        <v>9.7973220541609199E-4</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>1</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0.80066077817924497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C73" s="3">
+        <v>3.6977000000000002</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1.6566000000000001</v>
+      </c>
+      <c r="F73" s="3">
+        <v>3.105</v>
+      </c>
+      <c r="G73" s="4">
+        <v>22</v>
+      </c>
+      <c r="H73" s="9">
+        <v>0.63569257490230102</v>
+      </c>
+      <c r="I73" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J73" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0.35870620881026699</v>
+      </c>
+      <c r="L73" s="9">
+        <v>3.5606235606556798E-2</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>1</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0.847688070394649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C74" s="3">
+        <v>3.7383000000000002</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1.5462</v>
+      </c>
+      <c r="F74" s="3">
+        <v>3.1391</v>
+      </c>
+      <c r="G74" s="4">
+        <v>22</v>
+      </c>
+      <c r="H74" s="9">
+        <v>0.59110915492957705</v>
+      </c>
+      <c r="I74" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J74" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0.35166493236212298</v>
+      </c>
+      <c r="L74" s="9">
+        <v>3.4588064045522303E-2</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>1</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0.85139353397574902</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C75" s="3">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3.2035</v>
+      </c>
+      <c r="G75" s="4">
+        <v>22</v>
+      </c>
+      <c r="H75" s="9">
+        <v>0.75473270627455702</v>
+      </c>
+      <c r="I75" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J75" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0.33836281651057898</v>
+      </c>
+      <c r="L75" s="9">
+        <v>1.23996420602427E-2</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>1</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0.85810639368950503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4.0331000000000001</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1.8559000000000001</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2.2763</v>
+      </c>
+      <c r="G76" s="4">
+        <v>18</v>
+      </c>
+      <c r="H76" s="9">
+        <v>0.58397737983034903</v>
+      </c>
+      <c r="I76" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J76" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0.30053763440860198</v>
+      </c>
+      <c r="L76" s="9">
+        <v>6.4809747061480696E-2</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0.89576980526629602</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C77" s="3">
+        <v>4.0753000000000004</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1.7527999999999999</v>
+      </c>
+      <c r="F77" s="3">
+        <v>2.3001999999999998</v>
+      </c>
+      <c r="G77" s="4">
+        <v>18</v>
+      </c>
+      <c r="H77" s="9">
+        <v>0.53329328126564501</v>
+      </c>
+      <c r="I77" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J77" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0.29321886923343699</v>
+      </c>
+      <c r="L77" s="9">
+        <v>5.97281426354472E-2</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>1</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0.8988608411472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C78" s="3">
+        <v>4.1539000000000001</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="F78" s="3">
+        <v>2.3445</v>
+      </c>
+      <c r="G78" s="4">
+        <v>18</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0.51407543698252101</v>
+      </c>
+      <c r="I78" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J78" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0.27958723551855702</v>
+      </c>
+      <c r="L78" s="9">
+        <v>6.2360923818001499E-2</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0.904334232463615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C79" s="3">
+        <v>4.2255000000000003</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1.3863000000000001</v>
+      </c>
+      <c r="F79" s="3">
+        <v>2.3849</v>
+      </c>
+      <c r="G79" s="4">
+        <v>18</v>
+      </c>
+      <c r="H79" s="9">
+        <v>0.65800801543713805</v>
+      </c>
+      <c r="I79" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J79" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K79" s="3">
+        <v>0.26716961498439101</v>
+      </c>
+      <c r="L79" s="9">
+        <v>3.7124092447524702E-2</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>1</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0.90901229333429501</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5.766</v>
+      </c>
+      <c r="C80" s="3">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1.2262999999999999</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2.4218999999999999</v>
+      </c>
+      <c r="G80" s="4">
+        <v>18</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1.02070393374741</v>
+      </c>
+      <c r="I80" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="J80" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="K80" s="3">
+        <v>0.25580992022199101</v>
+      </c>
+      <c r="L80" s="9">
+        <v>4.0956074728033904E-3</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>1</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0.91304124505334505</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R80"/>
   <sheetViews>
@@ -4535,11 +9036,11 @@
         <v>0.52348248352410687</v>
       </c>
       <c r="P66">
-        <f t="shared" ref="P66:P97" si="12">1+(1-O66)^2+2*0.938*0.938*C66*C66*O66*O66/E66</f>
+        <f t="shared" ref="P66:P80" si="12">1+(1-O66)^2+2*0.938*0.938*C66*C66*O66*O66/E66</f>
         <v>1.2994321196682859</v>
       </c>
       <c r="Q66" s="2">
-        <f t="shared" ref="Q66:Q97" si="13">F66*O66/B66*E66*E66/2*137*137/P66/0.38938/1000</f>
+        <f t="shared" ref="Q66:Q80" si="13">F66*O66/B66*E66*E66/2*137*137/P66/0.38938/1000</f>
         <v>1.5031040270194631E-2</v>
       </c>
       <c r="R66">
@@ -5399,4507 +9900,6 @@
       <c r="R80">
         <f t="shared" si="14"/>
         <v>0.91304124505334472</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK80"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="6" width="11.33203125" style="3"/>
-    <col min="7" max="7" width="11.83203125" style="4"/>
-    <col min="8" max="1025" width="11.33203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0.79290000000000005</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="E2" s="3">
-        <v>6.9462999999999999</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.2663000000000002</v>
-      </c>
-      <c r="G2" s="4">
-        <v>50</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.81697283894962303</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J2" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0.862486992715921</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.232370931398311</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0.21151725346814601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.84130000000000005</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E3" s="3">
-        <v>6.6562999999999999</v>
-      </c>
-      <c r="F3" s="3">
-        <v>3.4655</v>
-      </c>
-      <c r="G3" s="4">
-        <v>50</v>
-      </c>
-      <c r="H3" s="9">
-        <v>0.74066235059760999</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.85409295872355195</v>
-      </c>
-      <c r="L3" s="9">
-        <v>0.21988458700472799</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>1</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0.223296341271042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.88870000000000005</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.3718000000000004</v>
-      </c>
-      <c r="F4" s="3">
-        <v>3.661</v>
-      </c>
-      <c r="G4" s="4">
-        <v>50</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0.68946370530877599</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.84587235518557102</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0.21044809222229999</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>1</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0.234706559092666</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.93530000000000002</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>6.0928000000000004</v>
-      </c>
-      <c r="F5" s="3">
-        <v>3.8527</v>
-      </c>
-      <c r="G5" s="4">
-        <v>50</v>
-      </c>
-      <c r="H5" s="9">
-        <v>0.57275636142008202</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.83779049601109901</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0.19397172764180101</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>1</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0.24576231007260299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.98089999999999999</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5.819</v>
-      </c>
-      <c r="F6" s="3">
-        <v>4.0407000000000002</v>
-      </c>
-      <c r="G6" s="4">
-        <v>50</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.61274845784784104</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.82988206729101599</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0.17830385472802401</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>1</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.25646121578709502</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.0257000000000001</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5.5503999999999998</v>
-      </c>
-      <c r="F7" s="3">
-        <v>4.2252999999999998</v>
-      </c>
-      <c r="G7" s="4">
-        <v>50</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0.64978902953586504</v>
-      </c>
-      <c r="I7" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.822112382934443</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0.16419506402860001</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0.26683471075213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.0697000000000001</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5.2868000000000004</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4.4063999999999997</v>
-      </c>
-      <c r="G8" s="4">
-        <v>50</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0.55852915578764095</v>
-      </c>
-      <c r="I8" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J8" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.81448144294138103</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0.148784086209861</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0.276885053243621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1.1128</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E9" s="3">
-        <v>5.0279999999999996</v>
-      </c>
-      <c r="F9" s="3">
-        <v>4.5842000000000001</v>
-      </c>
-      <c r="G9" s="4">
-        <v>50</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0.54957369062119399</v>
-      </c>
-      <c r="I9" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J9" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.80700659035726696</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0.13630867822237</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0.28661882153538398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.1552</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E10" s="3">
-        <v>4.7739000000000003</v>
-      </c>
-      <c r="F10" s="3">
-        <v>4.7587999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>50</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0.55896425555868301</v>
-      </c>
-      <c r="I10" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.79965313909122504</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0.120753021862055</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0.29605987687221302</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.1968000000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E11" s="3">
-        <v>4.5244</v>
-      </c>
-      <c r="F11" s="3">
-        <v>4.9302000000000001</v>
-      </c>
-      <c r="G11" s="4">
-        <v>50</v>
-      </c>
-      <c r="H11" s="9">
-        <v>0.524861878453039</v>
-      </c>
-      <c r="I11" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J11" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.79243843218869203</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0.10683482907660199</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0.30520680314090698</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.2377</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4.2793999999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>5.0984999999999996</v>
-      </c>
-      <c r="G12" s="4">
-        <v>50</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0.59749144811858601</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J12" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.78534512660423195</v>
-      </c>
-      <c r="L12" s="9">
-        <v>9.3158139107497706E-2</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0.314076370098469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.2778</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="E13" s="3">
-        <v>4.0387000000000004</v>
-      </c>
-      <c r="F13" s="3">
-        <v>5.2638999999999996</v>
-      </c>
-      <c r="G13" s="4">
-        <v>50</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.49388863739248501</v>
-      </c>
-      <c r="I13" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.778390565383281</v>
-      </c>
-      <c r="L13" s="9">
-        <v>7.9649937698260204E-2</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>0.32267328535210799</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.3172999999999999</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3.8022</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5.4263000000000003</v>
-      </c>
-      <c r="G14" s="4">
-        <v>50</v>
-      </c>
-      <c r="H14" s="9">
-        <v>0.62988752008569904</v>
-      </c>
-      <c r="I14" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J14" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.77154006243496398</v>
-      </c>
-      <c r="L14" s="9">
-        <v>6.8445439512412901E-2</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0.33101500317856097</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.3560000000000001</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3.5699000000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5.5860000000000003</v>
-      </c>
-      <c r="G15" s="4">
-        <v>50</v>
-      </c>
-      <c r="H15" s="9">
-        <v>0.56337475474166099</v>
-      </c>
-      <c r="I15" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J15" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0.76482830385015599</v>
-      </c>
-      <c r="L15" s="9">
-        <v>5.6928041186516301E-2</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0.33910093879699199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.3940999999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3.3416000000000001</v>
-      </c>
-      <c r="F16" s="3">
-        <v>5.7427999999999999</v>
-      </c>
-      <c r="G16" s="4">
-        <v>50</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0.76396761133603197</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J16" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0.75822060353798104</v>
-      </c>
-      <c r="L16" s="9">
-        <v>4.6637301492072097E-2</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0.34694556147743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1.4315</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3.1172</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5.8970000000000002</v>
-      </c>
-      <c r="G17" s="4">
-        <v>50</v>
-      </c>
-      <c r="H17" s="9">
-        <v>0.68535262206148295</v>
-      </c>
-      <c r="I17" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J17" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.75173430454387802</v>
-      </c>
-      <c r="L17" s="9">
-        <v>4.23182275232271E-2</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0.35455524355278301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1.4682999999999999</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2.8965000000000001</v>
-      </c>
-      <c r="F18" s="3">
-        <v>6.0486000000000004</v>
-      </c>
-      <c r="G18" s="4">
-        <v>50</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0.56778523489932897</v>
-      </c>
-      <c r="I18" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J18" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0.74535206382240704</v>
-      </c>
-      <c r="L18" s="9">
-        <v>4.0393459742469197E-2</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0.36194268647079902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1.5044999999999999</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2.6797</v>
-      </c>
-      <c r="F19" s="3">
-        <v>6.1976000000000004</v>
-      </c>
-      <c r="G19" s="4">
-        <v>50</v>
-      </c>
-      <c r="H19" s="9">
-        <v>0.67141774071266103</v>
-      </c>
-      <c r="I19" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J19" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0.739073881373569</v>
-      </c>
-      <c r="L19" s="9">
-        <v>2.58270744375356E-2</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0.36911266709454299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1.5401</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.4664000000000001</v>
-      </c>
-      <c r="F20" s="3">
-        <v>6.3441000000000001</v>
-      </c>
-      <c r="G20" s="4">
-        <v>50</v>
-      </c>
-      <c r="H20" s="9">
-        <v>0.73434423001181603</v>
-      </c>
-      <c r="I20" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J20" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0.732899757197364</v>
-      </c>
-      <c r="L20" s="9">
-        <v>2.0091312995889399E-2</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0.376072654744039</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1.575</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.2566000000000002</v>
-      </c>
-      <c r="F21" s="3">
-        <v>6.4882</v>
-      </c>
-      <c r="G21" s="4">
-        <v>50</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.76178107606679002</v>
-      </c>
-      <c r="I21" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J21" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0.72684703433923004</v>
-      </c>
-      <c r="L21" s="9">
-        <v>2.1530766363310201E-2</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0.38282156182349097</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1.6094999999999999</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E22" s="3">
-        <v>2.0503</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6.6299000000000001</v>
-      </c>
-      <c r="G22" s="4">
-        <v>50</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.0013513513513499</v>
-      </c>
-      <c r="I22" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J22" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0.72086368366285103</v>
-      </c>
-      <c r="L22" s="9">
-        <v>1.19266932919114E-2</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0.38938833773357701</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1.6433</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1.8473999999999999</v>
-      </c>
-      <c r="F23" s="3">
-        <v>6.7694000000000001</v>
-      </c>
-      <c r="G23" s="4">
-        <v>50</v>
-      </c>
-      <c r="H23" s="9">
-        <v>1.2596630327056499</v>
-      </c>
-      <c r="I23" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J23" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.71500173430454395</v>
-      </c>
-      <c r="L23" s="9">
-        <v>8.1973910286627805E-3</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0.39575755343805202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1.6766000000000001</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1.6476999999999999</v>
-      </c>
-      <c r="F24" s="3">
-        <v>6.9065000000000003</v>
-      </c>
-      <c r="G24" s="4">
-        <v>50</v>
-      </c>
-      <c r="H24" s="9">
-        <v>1.67868098159509</v>
-      </c>
-      <c r="I24" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J24" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.70922650017343003</v>
-      </c>
-      <c r="L24" s="9">
-        <v>5.3362903095987299E-3</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0.40194464141446801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.7094</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1.4513</v>
-      </c>
-      <c r="F25" s="3">
-        <v>7.0415000000000001</v>
-      </c>
-      <c r="G25" s="4">
-        <v>50</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2.9563888562360399</v>
-      </c>
-      <c r="I25" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J25" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0.70353798126951095</v>
-      </c>
-      <c r="L25" s="9">
-        <v>3.5049673711535999E-3</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0.40796102045844201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1.0630999999999999</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="E26" s="3">
-        <v>6.8373999999999997</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2.8681999999999999</v>
-      </c>
-      <c r="G26" s="4">
-        <v>40</v>
-      </c>
-      <c r="H26" s="9">
-        <v>0.47868480725623602</v>
-      </c>
-      <c r="I26" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J26" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0.81562608394033997</v>
-      </c>
-      <c r="L26" s="9">
-        <v>0.24912339248218701</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0.30229552209066002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.1289</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.35</v>
-      </c>
-      <c r="E27" s="3">
-        <v>6.5365000000000002</v>
-      </c>
-      <c r="F27" s="3">
-        <v>3.0455999999999999</v>
-      </c>
-      <c r="G27" s="4">
-        <v>40</v>
-      </c>
-      <c r="H27" s="9">
-        <v>0.44222495390288902</v>
-      </c>
-      <c r="I27" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J27" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0.80421436004162405</v>
-      </c>
-      <c r="L27" s="9">
-        <v>0.23900906578838699</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0.31892307345288701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.1928000000000001</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E28" s="3">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <v>3.2181999999999999</v>
-      </c>
-      <c r="G28" s="4">
-        <v>40</v>
-      </c>
-      <c r="H28" s="9">
-        <v>0.51223404255319205</v>
-      </c>
-      <c r="I28" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J28" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0.79313215400624404</v>
-      </c>
-      <c r="L28" s="9">
-        <v>0.22877004708844401</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0.33480939772998702</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E29" s="3">
-        <v>5.9593999999999996</v>
-      </c>
-      <c r="F29" s="3">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="G29" s="4">
-        <v>40</v>
-      </c>
-      <c r="H29" s="9">
-        <v>1.4757709251101301</v>
-      </c>
-      <c r="I29" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J29" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0.78234477974332295</v>
-      </c>
-      <c r="L29" s="9">
-        <v>0.213616501072904</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0.34998904344627901</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1.1928000000000001</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="E30" s="3">
-        <v>6.2439999999999998</v>
-      </c>
-      <c r="F30" s="3">
-        <v>3.2181999999999999</v>
-      </c>
-      <c r="G30" s="4">
-        <v>40</v>
-      </c>
-      <c r="H30" s="9">
-        <v>1.0047814207650301</v>
-      </c>
-      <c r="I30" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J30" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0.79313215400624404</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0.22268573732545299</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>0.33480939772998702</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="E31" s="3">
-        <v>5.9593999999999996</v>
-      </c>
-      <c r="F31" s="3">
-        <v>3.3860000000000001</v>
-      </c>
-      <c r="G31" s="4">
-        <v>40</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.42162756598240497</v>
-      </c>
-      <c r="I31" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J31" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0.78234477974332295</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0.213930181691219</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>0.34998904344627901</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1.3156000000000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>5.6824000000000003</v>
-      </c>
-      <c r="F32" s="3">
-        <v>3.5493999999999999</v>
-      </c>
-      <c r="G32" s="4">
-        <v>40</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.406877022653722</v>
-      </c>
-      <c r="I32" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J32" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0.77183489420742302</v>
-      </c>
-      <c r="L32" s="9">
-        <v>0.19917947642342901</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0.36451216453171997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1.3745000000000001</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.45</v>
-      </c>
-      <c r="E33" s="3">
-        <v>5.4127999999999998</v>
-      </c>
-      <c r="F33" s="3">
-        <v>3.7084000000000001</v>
-      </c>
-      <c r="G33" s="4">
-        <v>40</v>
-      </c>
-      <c r="H33" s="9">
-        <v>0.442984807864165</v>
-      </c>
-      <c r="I33" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J33" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.76161984044398201</v>
-      </c>
-      <c r="L33" s="9">
-        <v>0.184718171106523</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0.37838720845348101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1.4319</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E34" s="3">
-        <v>5.1501999999999999</v>
-      </c>
-      <c r="F34" s="3">
-        <v>3.8632</v>
-      </c>
-      <c r="G34" s="4">
-        <v>40</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.65134328358209004</v>
-      </c>
-      <c r="I34" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J34" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0.75166493236212295</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0.16947032493493999</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>1</v>
-      </c>
-      <c r="R34" s="3">
-        <v>0.39165999496478998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1.4319</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="E35" s="3">
-        <v>5.1501999999999999</v>
-      </c>
-      <c r="F35" s="3">
-        <v>3.8632</v>
-      </c>
-      <c r="G35" s="4">
-        <v>40</v>
-      </c>
-      <c r="H35" s="9">
-        <v>0.56405163853028795</v>
-      </c>
-      <c r="I35" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J35" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0.75166493236212295</v>
-      </c>
-      <c r="L35" s="9">
-        <v>0.16980757931292001</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0.39165999496478998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1.4878</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="3">
-        <v>4.8944999999999999</v>
-      </c>
-      <c r="F36" s="3">
-        <v>4.0141</v>
-      </c>
-      <c r="G36" s="4">
-        <v>40</v>
-      </c>
-      <c r="H36" s="9">
-        <v>0.399669056811914</v>
-      </c>
-      <c r="I36" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J36" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0.74197016996184495</v>
-      </c>
-      <c r="L36" s="9">
-        <v>0.155787685340465</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>1</v>
-      </c>
-      <c r="R36" s="3">
-        <v>0.40436247106844803</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C37" s="3">
-        <v>1.5423</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E37" s="3">
-        <v>4.6452</v>
-      </c>
-      <c r="F37" s="3">
-        <v>4.1611000000000002</v>
-      </c>
-      <c r="G37" s="4">
-        <v>40</v>
-      </c>
-      <c r="H37" s="9">
-        <v>0.40062500000000001</v>
-      </c>
-      <c r="I37" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J37" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0.73251821019771102</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0.139812431864</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>1</v>
-      </c>
-      <c r="R37" s="3">
-        <v>0.41651955981900501</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1.5953999999999999</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4.4021999999999997</v>
-      </c>
-      <c r="F38" s="3">
-        <v>4.3044000000000002</v>
-      </c>
-      <c r="G38" s="4">
-        <v>40</v>
-      </c>
-      <c r="H38" s="9">
-        <v>0.423668973308855</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J38" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0.72330905306971904</v>
-      </c>
-      <c r="L38" s="9">
-        <v>0.12561118651744299</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>1</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0.42815635416007503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1.6472</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4.1651999999999996</v>
-      </c>
-      <c r="F39" s="3">
-        <v>4.4442000000000004</v>
-      </c>
-      <c r="G39" s="4">
-        <v>40</v>
-      </c>
-      <c r="H39" s="9">
-        <v>0.487104622871046</v>
-      </c>
-      <c r="I39" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J39" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0.71432535553243104</v>
-      </c>
-      <c r="L39" s="9">
-        <v>0.110818155311126</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="R39" s="3">
-        <v>0.43930603842611099</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1.6978</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4.5804999999999998</v>
-      </c>
-      <c r="G40" s="4">
-        <v>40</v>
-      </c>
-      <c r="H40" s="9">
-        <v>0.75615717240082703</v>
-      </c>
-      <c r="I40" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J40" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K40" s="3">
-        <v>0.70554977454040901</v>
-      </c>
-      <c r="L40" s="9">
-        <v>9.6726770701391296E-2</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>1</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0.449992245961782</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1.6472</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.57499999999999996</v>
-      </c>
-      <c r="E41" s="3">
-        <v>4.1651999999999996</v>
-      </c>
-      <c r="F41" s="3">
-        <v>4.4442000000000004</v>
-      </c>
-      <c r="G41" s="4">
-        <v>40</v>
-      </c>
-      <c r="H41" s="9">
-        <v>0.79389563505087002</v>
-      </c>
-      <c r="I41" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J41" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0.71432535553243104</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0.109541904049635</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0.43930603842611099</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1.6978</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3.9340000000000002</v>
-      </c>
-      <c r="F42" s="3">
-        <v>4.5804999999999998</v>
-      </c>
-      <c r="G42" s="4">
-        <v>40</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0.49896010588012901</v>
-      </c>
-      <c r="I42" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J42" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0.70554977454040901</v>
-      </c>
-      <c r="L42" s="9">
-        <v>9.6181216439116105E-2</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0.449992245961782</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1.7471000000000001</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3.7084999999999999</v>
-      </c>
-      <c r="F43" s="3">
-        <v>4.7135999999999996</v>
-      </c>
-      <c r="G43" s="4">
-        <v>40</v>
-      </c>
-      <c r="H43" s="9">
-        <v>0.46946316018256901</v>
-      </c>
-      <c r="I43" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J43" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0.69699965313909096</v>
-      </c>
-      <c r="L43" s="9">
-        <v>8.4539461679227698E-2</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0.460231801983778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1.7951999999999999</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3.4883000000000002</v>
-      </c>
-      <c r="F44" s="3">
-        <v>4.8433999999999999</v>
-      </c>
-      <c r="G44" s="4">
-        <v>40</v>
-      </c>
-      <c r="H44" s="9">
-        <v>0.40473129339161701</v>
-      </c>
-      <c r="I44" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J44" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0.68865764828303899</v>
-      </c>
-      <c r="L44" s="9">
-        <v>7.2107476764021697E-2</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0.47004294543813901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C45" s="3">
-        <v>1.8422000000000001</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3.2734000000000001</v>
-      </c>
-      <c r="F45" s="3">
-        <v>4.9702000000000002</v>
-      </c>
-      <c r="G45" s="4">
-        <v>40</v>
-      </c>
-      <c r="H45" s="9">
-        <v>0.53384146341463401</v>
-      </c>
-      <c r="I45" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J45" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0.68050641692681202</v>
-      </c>
-      <c r="L45" s="9">
-        <v>6.1299908003293303E-2</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0.47945968575219899</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C46" s="3">
-        <v>1.8880999999999999</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E46" s="3">
-        <v>3.0634999999999999</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5.0940000000000003</v>
-      </c>
-      <c r="G46" s="4">
-        <v>40</v>
-      </c>
-      <c r="H46" s="9">
-        <v>0.557467532467533</v>
-      </c>
-      <c r="I46" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J46" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0.67254595907041304</v>
-      </c>
-      <c r="L46" s="9">
-        <v>5.7960064251655903E-2</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0.488493681699319</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C47" s="3">
-        <v>1.9329000000000001</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E47" s="3">
-        <v>2.8584000000000001</v>
-      </c>
-      <c r="F47" s="3">
-        <v>5.2149000000000001</v>
-      </c>
-      <c r="G47" s="4">
-        <v>40</v>
-      </c>
-      <c r="H47" s="9">
-        <v>0.55060584461867401</v>
-      </c>
-      <c r="I47" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J47" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0.66477627471384004</v>
-      </c>
-      <c r="L47" s="9">
-        <v>5.3120250085639399E-2</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0.49715997330680101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C48" s="3">
-        <v>1.9766999999999999</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E48" s="3">
-        <v>2.6581000000000001</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5.3331</v>
-      </c>
-      <c r="G48" s="4">
-        <v>40</v>
-      </c>
-      <c r="H48" s="9">
-        <v>1.3314886552296601</v>
-      </c>
-      <c r="I48" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J48" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0.65718002081165505</v>
-      </c>
-      <c r="L48" s="9">
-        <v>3.4384015477416902E-2</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0.50548597373174797</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C49" s="3">
-        <v>1.9329000000000001</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2.8584000000000001</v>
-      </c>
-      <c r="F49" s="3">
-        <v>5.2149000000000001</v>
-      </c>
-      <c r="G49" s="4">
-        <v>40</v>
-      </c>
-      <c r="H49" s="9">
-        <v>0.79241941197307797</v>
-      </c>
-      <c r="I49" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J49" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0.66477627471384004</v>
-      </c>
-      <c r="L49" s="9">
-        <v>5.3442076262209502E-2</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0.49715997330680101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C50" s="3">
-        <v>1.9766999999999999</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2.6581000000000001</v>
-      </c>
-      <c r="F50" s="3">
-        <v>5.3331</v>
-      </c>
-      <c r="G50" s="4">
-        <v>40</v>
-      </c>
-      <c r="H50" s="9">
-        <v>0.75795148247978394</v>
-      </c>
-      <c r="I50" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J50" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K50" s="3">
-        <v>0.65718002081165505</v>
-      </c>
-      <c r="L50" s="9">
-        <v>3.5297370620148497E-2</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>1</v>
-      </c>
-      <c r="R50" s="3">
-        <v>0.50548597373174797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C51" s="3">
-        <v>2.0194999999999999</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E51" s="3">
-        <v>2.4622000000000002</v>
-      </c>
-      <c r="F51" s="3">
-        <v>5.4485999999999999</v>
-      </c>
-      <c r="G51" s="4">
-        <v>40</v>
-      </c>
-      <c r="H51" s="9">
-        <v>0.51328437917223002</v>
-      </c>
-      <c r="I51" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J51" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K51" s="3">
-        <v>0.64975719736385695</v>
-      </c>
-      <c r="L51" s="9">
-        <v>2.8628344040957199E-2</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>1</v>
-      </c>
-      <c r="R51" s="3">
-        <v>0.51348173700046895</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2.0613999999999999</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2.2707000000000002</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5.5614999999999997</v>
-      </c>
-      <c r="G52" s="4">
-        <v>40</v>
-      </c>
-      <c r="H52" s="9">
-        <v>0.50495283018867898</v>
-      </c>
-      <c r="I52" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J52" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0.64249046132500898</v>
-      </c>
-      <c r="L52" s="9">
-        <v>3.2528405994972302E-2</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0.52116992703177401</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C53" s="3">
-        <v>2.1023000000000001</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E53" s="3">
-        <v>2.0834999999999999</v>
-      </c>
-      <c r="F53" s="3">
-        <v>5.6719999999999997</v>
-      </c>
-      <c r="G53" s="4">
-        <v>40</v>
-      </c>
-      <c r="H53" s="9">
-        <v>0.85909417685118605</v>
-      </c>
-      <c r="I53" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J53" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0.635397155740548</v>
-      </c>
-      <c r="L53" s="9">
-        <v>1.8731480863172601E-2</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>1</v>
-      </c>
-      <c r="R53" s="3">
-        <v>0.52855646411906498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2.1423000000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1.9003000000000001</v>
-      </c>
-      <c r="F54" s="3">
-        <v>5.78</v>
-      </c>
-      <c r="G54" s="4">
-        <v>40</v>
-      </c>
-      <c r="H54" s="9">
-        <v>0.702876771146415</v>
-      </c>
-      <c r="I54" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J54" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0.62845993756503604</v>
-      </c>
-      <c r="L54" s="9">
-        <v>1.34733046417739E-2</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0.53565648348904804</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2.1815000000000002</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="E55" s="3">
-        <v>1.7212000000000001</v>
-      </c>
-      <c r="F55" s="3">
-        <v>5.8856999999999999</v>
-      </c>
-      <c r="G55" s="4">
-        <v>40</v>
-      </c>
-      <c r="H55" s="9">
-        <v>0.84975669099756701</v>
-      </c>
-      <c r="I55" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J55" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0.62166146375303499</v>
-      </c>
-      <c r="L55" s="9">
-        <v>9.5276279997989696E-3</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>1</v>
-      </c>
-      <c r="R55" s="3">
-        <v>0.54249390917823703</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2.2198000000000002</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1.5458000000000001</v>
-      </c>
-      <c r="F56" s="3">
-        <v>5.9890999999999996</v>
-      </c>
-      <c r="G56" s="4">
-        <v>40</v>
-      </c>
-      <c r="H56" s="9">
-        <v>1.4109947643979099</v>
-      </c>
-      <c r="I56" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J56" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K56" s="3">
-        <v>0.61501907734998296</v>
-      </c>
-      <c r="L56" s="9">
-        <v>7.3892012681509899E-3</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>1</v>
-      </c>
-      <c r="R56" s="3">
-        <v>0.54906706095244096</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C57" s="3">
-        <v>2.2574000000000001</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1.3742000000000001</v>
-      </c>
-      <c r="F57" s="3">
-        <v>6.0903</v>
-      </c>
-      <c r="G57" s="4">
-        <v>40</v>
-      </c>
-      <c r="H57" s="9">
-        <v>1.4503657262278</v>
-      </c>
-      <c r="I57" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J57" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0.60849809226500196</v>
-      </c>
-      <c r="L57" s="9">
-        <v>3.7051347930774502E-3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0.55540521207403204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C58" s="3">
-        <v>2.2940999999999998</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1.2060999999999999</v>
-      </c>
-      <c r="F58" s="3">
-        <v>6.1894</v>
-      </c>
-      <c r="G58" s="4">
-        <v>40</v>
-      </c>
-      <c r="H58" s="9">
-        <v>3.2705882352941198</v>
-      </c>
-      <c r="I58" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J58" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0.60213319458896997</v>
-      </c>
-      <c r="L58" s="9">
-        <v>3.4568628346563697E-4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>1</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0.56149928676119198</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2.4192</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="E59" s="3">
-        <v>2.9215</v>
-      </c>
-      <c r="F59" s="3">
-        <v>4.2392000000000003</v>
-      </c>
-      <c r="G59" s="4">
-        <v>32</v>
-      </c>
-      <c r="H59" s="9">
-        <v>1.11794871794872</v>
-      </c>
-      <c r="I59" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J59" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K59" s="3">
-        <v>0.58043704474505697</v>
-      </c>
-      <c r="L59" s="9">
-        <v>8.1725653243900701E-2</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0.62540864911006999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C60" s="3">
-        <v>2.4704000000000002</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2.7355999999999998</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4.3289999999999997</v>
-      </c>
-      <c r="G60" s="4">
-        <v>32</v>
-      </c>
-      <c r="H60" s="9">
-        <v>1.1167664670658699</v>
-      </c>
-      <c r="I60" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J60" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K60" s="3">
-        <v>0.57155740548040201</v>
-      </c>
-      <c r="L60" s="9">
-        <v>6.1495090972621298E-2</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1</v>
-      </c>
-      <c r="R60" s="3">
-        <v>0.63410651052405198</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B61" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C61" s="3">
-        <v>2.5200999999999998</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E61" s="3">
-        <v>2.5554000000000001</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4.4160000000000004</v>
-      </c>
-      <c r="G61" s="4">
-        <v>32</v>
-      </c>
-      <c r="H61" s="9">
-        <v>1.1350629530713501</v>
-      </c>
-      <c r="I61" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J61" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0.562937911897329</v>
-      </c>
-      <c r="L61" s="9">
-        <v>4.3768590169136E-2</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0.64234855804520996</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C62" s="3">
-        <v>2.5682999999999998</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="E62" s="3">
-        <v>2.3805000000000001</v>
-      </c>
-      <c r="F62" s="3">
-        <v>4.5004999999999997</v>
-      </c>
-      <c r="G62" s="4">
-        <v>32</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0.76680435598948604</v>
-      </c>
-      <c r="I62" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J62" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0.55457856399583805</v>
-      </c>
-      <c r="L62" s="9">
-        <v>4.4343394567065798E-2</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0.65016452913249101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C63" s="3">
-        <v>2.6151</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E63" s="3">
-        <v>2.2107000000000001</v>
-      </c>
-      <c r="F63" s="3">
-        <v>4.5823999999999998</v>
-      </c>
-      <c r="G63" s="4">
-        <v>32</v>
-      </c>
-      <c r="H63" s="9">
-        <v>1.11422771729101</v>
-      </c>
-      <c r="I63" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J63" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K63" s="3">
-        <v>0.54646201873048905</v>
-      </c>
-      <c r="L63" s="9">
-        <v>4.4962433841087703E-2</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>1</v>
-      </c>
-      <c r="R63" s="3">
-        <v>0.65757800634074703</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B64" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C64" s="3">
-        <v>2.6604999999999999</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E64" s="3">
-        <v>2.0459000000000001</v>
-      </c>
-      <c r="F64" s="3">
-        <v>4.6620999999999997</v>
-      </c>
-      <c r="G64" s="4">
-        <v>32</v>
-      </c>
-      <c r="H64" s="9">
-        <v>0.98536895674300196</v>
-      </c>
-      <c r="I64" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J64" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K64" s="3">
-        <v>0.53858827610128301</v>
-      </c>
-      <c r="L64" s="9">
-        <v>2.5987183469840101E-2</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N64" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P64" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>1</v>
-      </c>
-      <c r="R64" s="3">
-        <v>0.66461859203434703</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B65" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C65" s="3">
-        <v>2.7046999999999999</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1.8856999999999999</v>
-      </c>
-      <c r="F65" s="3">
-        <v>4.7393999999999998</v>
-      </c>
-      <c r="G65" s="4">
-        <v>32</v>
-      </c>
-      <c r="H65" s="9">
-        <v>1.63991683991684</v>
-      </c>
-      <c r="I65" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J65" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K65" s="3">
-        <v>0.53092265001734296</v>
-      </c>
-      <c r="L65" s="9">
-        <v>1.9792263928729101E-2</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N65" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>1</v>
-      </c>
-      <c r="R65" s="3">
-        <v>0.67131374831021096</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C66" s="3">
-        <v>2.7475999999999998</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1.73</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4.8146000000000004</v>
-      </c>
-      <c r="G66" s="4">
-        <v>32</v>
-      </c>
-      <c r="H66" s="9">
-        <v>1.3329700272479601</v>
-      </c>
-      <c r="I66" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J66" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K66" s="3">
-        <v>0.52348248352410698</v>
-      </c>
-      <c r="L66" s="9">
-        <v>1.50310402701946E-2</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N66" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1</v>
-      </c>
-      <c r="R66" s="3">
-        <v>0.67767706405085903</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C67" s="3">
-        <v>2.7892999999999999</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1.5786</v>
-      </c>
-      <c r="F67" s="3">
-        <v>4.8876999999999997</v>
-      </c>
-      <c r="G67" s="4">
-        <v>32</v>
-      </c>
-      <c r="H67" s="9">
-        <v>2.1331250000000002</v>
-      </c>
-      <c r="I67" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J67" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K67" s="3">
-        <v>0.51625043357613598</v>
-      </c>
-      <c r="L67" s="9">
-        <v>1.30406085590998E-2</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P67" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>1</v>
-      </c>
-      <c r="R67" s="3">
-        <v>0.68373075616351797</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B68" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C68" s="3">
-        <v>2.8298999999999999</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1.4313</v>
-      </c>
-      <c r="F68" s="3">
-        <v>4.9588000000000001</v>
-      </c>
-      <c r="G68" s="4">
-        <v>32</v>
-      </c>
-      <c r="H68" s="9">
-        <v>2.0602928509905301</v>
-      </c>
-      <c r="I68" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J68" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K68" s="3">
-        <v>0.50920915712799197</v>
-      </c>
-      <c r="L68" s="9">
-        <v>9.4121320117904403E-3</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>1</v>
-      </c>
-      <c r="R68" s="3">
-        <v>0.68949892154606096</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C69" s="3">
-        <v>2.8694000000000002</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1.288</v>
-      </c>
-      <c r="F69" s="3">
-        <v>5.0279999999999996</v>
-      </c>
-      <c r="G69" s="4">
-        <v>32</v>
-      </c>
-      <c r="H69" s="9">
-        <v>5.7937088514996304</v>
-      </c>
-      <c r="I69" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J69" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0.50235865417967396</v>
-      </c>
-      <c r="L69" s="9">
-        <v>2.2040333997109499E-3</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N69" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>1</v>
-      </c>
-      <c r="R69" s="3">
-        <v>0.69499522047574003</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A70" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C70" s="3">
-        <v>2.9077999999999999</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1.1485000000000001</v>
-      </c>
-      <c r="F70" s="3">
-        <v>5.0953999999999997</v>
-      </c>
-      <c r="G70" s="4">
-        <v>32</v>
-      </c>
-      <c r="H70" s="9">
-        <v>8.0368098159509191</v>
-      </c>
-      <c r="I70" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J70" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0.49569892473118299</v>
-      </c>
-      <c r="L70" s="9">
-        <v>1.6983677280512001E-5</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0.70023251150333199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B71" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C71" s="3">
-        <v>3.4097</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1.3225</v>
-      </c>
-      <c r="F71" s="3">
-        <v>3.9794999999999998</v>
-      </c>
-      <c r="G71" s="4">
-        <v>26</v>
-      </c>
-      <c r="H71" s="9">
-        <v>1.2225461613216699</v>
-      </c>
-      <c r="I71" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J71" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K71" s="3">
-        <v>0.40865417967395101</v>
-      </c>
-      <c r="L71" s="9">
-        <v>6.6790290818212299E-3</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>1</v>
-      </c>
-      <c r="R71" s="3">
-        <v>0.79660480782112897</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B72" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C72" s="3">
-        <v>3.4478</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1.2065999999999999</v>
-      </c>
-      <c r="F72" s="3">
-        <v>4.0239000000000003</v>
-      </c>
-      <c r="G72" s="4">
-        <v>26</v>
-      </c>
-      <c r="H72" s="9">
-        <v>1.7048804454634801</v>
-      </c>
-      <c r="I72" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J72" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K72" s="3">
-        <v>0.40204647936177601</v>
-      </c>
-      <c r="L72" s="9">
-        <v>9.7973220541609199E-4</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>1</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0.80066077817924497</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B73" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C73" s="3">
-        <v>3.6977000000000002</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1.6566000000000001</v>
-      </c>
-      <c r="F73" s="3">
-        <v>3.105</v>
-      </c>
-      <c r="G73" s="4">
-        <v>22</v>
-      </c>
-      <c r="H73" s="9">
-        <v>0.63569257490230102</v>
-      </c>
-      <c r="I73" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J73" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0.35870620881026699</v>
-      </c>
-      <c r="L73" s="9">
-        <v>3.5606235606556798E-2</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>1</v>
-      </c>
-      <c r="R73" s="3">
-        <v>0.847688070394649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B74" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C74" s="3">
-        <v>3.7383000000000002</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1.5462</v>
-      </c>
-      <c r="F74" s="3">
-        <v>3.1391</v>
-      </c>
-      <c r="G74" s="4">
-        <v>22</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.59110915492957705</v>
-      </c>
-      <c r="I74" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J74" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0.35166493236212298</v>
-      </c>
-      <c r="L74" s="9">
-        <v>3.4588064045522303E-2</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>1</v>
-      </c>
-      <c r="R74" s="3">
-        <v>0.85139353397574902</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B75" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C75" s="3">
-        <v>3.8149999999999999</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="F75" s="3">
-        <v>3.2035</v>
-      </c>
-      <c r="G75" s="4">
-        <v>22</v>
-      </c>
-      <c r="H75" s="9">
-        <v>0.75473270627455702</v>
-      </c>
-      <c r="I75" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J75" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K75" s="3">
-        <v>0.33836281651057898</v>
-      </c>
-      <c r="L75" s="9">
-        <v>1.23996420602427E-2</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>1</v>
-      </c>
-      <c r="R75" s="3">
-        <v>0.85810639368950503</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C76" s="3">
-        <v>4.0331000000000001</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1.8559000000000001</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2.2763</v>
-      </c>
-      <c r="G76" s="4">
-        <v>18</v>
-      </c>
-      <c r="H76" s="9">
-        <v>0.58397737983034903</v>
-      </c>
-      <c r="I76" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J76" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K76" s="3">
-        <v>0.30053763440860198</v>
-      </c>
-      <c r="L76" s="9">
-        <v>6.4809747061480696E-2</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0.89576980526629602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B77" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C77" s="3">
-        <v>4.0753000000000004</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1.7527999999999999</v>
-      </c>
-      <c r="F77" s="3">
-        <v>2.3001999999999998</v>
-      </c>
-      <c r="G77" s="4">
-        <v>18</v>
-      </c>
-      <c r="H77" s="9">
-        <v>0.53329328126564501</v>
-      </c>
-      <c r="I77" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J77" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0.29321886923343699</v>
-      </c>
-      <c r="L77" s="9">
-        <v>5.97281426354472E-2</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>1</v>
-      </c>
-      <c r="R77" s="3">
-        <v>0.8988608411472</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C78" s="3">
-        <v>4.1539000000000001</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="F78" s="3">
-        <v>2.3445</v>
-      </c>
-      <c r="G78" s="4">
-        <v>18</v>
-      </c>
-      <c r="H78" s="9">
-        <v>0.51407543698252101</v>
-      </c>
-      <c r="I78" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J78" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K78" s="3">
-        <v>0.27958723551855702</v>
-      </c>
-      <c r="L78" s="9">
-        <v>6.2360923818001499E-2</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>1</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0.904334232463615</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B79" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C79" s="3">
-        <v>4.2255000000000003</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1.3863000000000001</v>
-      </c>
-      <c r="F79" s="3">
-        <v>2.3849</v>
-      </c>
-      <c r="G79" s="4">
-        <v>18</v>
-      </c>
-      <c r="H79" s="9">
-        <v>0.65800801543713805</v>
-      </c>
-      <c r="I79" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J79" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K79" s="3">
-        <v>0.26716961498439101</v>
-      </c>
-      <c r="L79" s="9">
-        <v>3.7124092447524702E-2</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>1</v>
-      </c>
-      <c r="R79" s="3">
-        <v>0.90901229333429501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="3">
-        <v>5.766</v>
-      </c>
-      <c r="C80" s="3">
-        <v>4.2910000000000004</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="E80" s="3">
-        <v>1.2262999999999999</v>
-      </c>
-      <c r="F80" s="3">
-        <v>2.4218999999999999</v>
-      </c>
-      <c r="G80" s="4">
-        <v>18</v>
-      </c>
-      <c r="H80" s="9">
-        <v>1.02070393374741</v>
-      </c>
-      <c r="I80" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="J80" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="K80" s="3">
-        <v>0.25580992022199101</v>
-      </c>
-      <c r="L80" s="9">
-        <v>4.0956074728033904E-3</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>1</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0.91304124505334505</v>
       </c>
     </row>
   </sheetData>
